--- a/HW2/Problem2.xlsx
+++ b/HW2/Problem2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruosen\OneDrive\Documents\Study\NEU\CS 6120\NLP-Assginments\HW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_9356801BD6EC32BE0C4367D5D9FF9F74BFAD4DAA" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{99C416F1-AB99-4805-BB08-1672861AB762}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_9356801BD6EC32BE0C4367D5D9FF9F74BFAD4DAA" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{074969B0-D3C4-4352-904F-5A6F037BDC5F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,6 +128,7 @@
   </si>
   <si>
     <t>S60 -&gt;DP20 VP33 0.0000095256</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -511,13 +512,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="34" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="31.21875" style="1"/>
+    <col min="1" max="1" width="11.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="34" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
